--- a/result/contagion/country_match.xlsx
+++ b/result/contagion/country_match.xlsx
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="country_match" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Agg_US_2015" sheetId="2" r:id="rId2"/>
+    <sheet name="Multi_US_09" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Multi_US_09!$A$1:$E$398</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="281">
   <si>
     <t>country</t>
   </si>
@@ -862,6 +866,12 @@
   </si>
   <si>
     <t>country_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layer</t>
+  </si>
+  <si>
+    <t>Lao People's â€“ Democratic Republic</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A249"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,7 +3320,7 @@
   <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6811,4 +6821,7187 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E398"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(D2,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(D3,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(D4,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(D5,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(D6,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(D7,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(D8,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(D9,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(D10,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(D11,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(D12,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(D13,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(D14,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(D15,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(D16,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(D17,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(D18,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(D19,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(D20,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(D21,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(D22,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(D23,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(D24,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(D25,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(D26,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(D27,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(D28,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(D29,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(D30,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(D31,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(D32,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(D33,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(D34,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(D35,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(D36,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(D37,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(D38,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(D39,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(D40,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(D41,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(D42,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(D43,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(D44,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(D45,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(D46,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(D47,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(D48,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(D49,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP(D50,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP(D51,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP(D52,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP(D53,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP(D54,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP(D55,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP(D56,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP(D57,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP(D58,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP(D59,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP(D60,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP(D61,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP(D62,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP(D63,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP(D64,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP(D65,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP(D66,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67">
+        <f>VLOOKUP(D67,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68">
+        <f>VLOOKUP(D68,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69">
+        <f>VLOOKUP(D69,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70">
+        <f>VLOOKUP(D70,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <f>VLOOKUP(D71,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72">
+        <f>VLOOKUP(D72,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73">
+        <f>VLOOKUP(D73,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74">
+        <f>VLOOKUP(D74,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75">
+        <f>VLOOKUP(D75,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76">
+        <f>VLOOKUP(D76,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77">
+        <f>VLOOKUP(D77,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78">
+        <f>VLOOKUP(D78,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79">
+        <f>VLOOKUP(D79,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80">
+        <f>VLOOKUP(D80,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81">
+        <f>VLOOKUP(D81,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82">
+        <f>VLOOKUP(D82,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83">
+        <f>VLOOKUP(D83,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84">
+        <f>VLOOKUP(D84,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85">
+        <f>VLOOKUP(D85,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86">
+        <f>VLOOKUP(D86,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87">
+        <f>VLOOKUP(D87,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP(D88,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP(D89,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90">
+        <f>VLOOKUP(D90,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91">
+        <f>VLOOKUP(D91,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92">
+        <f>VLOOKUP(D92,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93">
+        <f>VLOOKUP(D93,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94">
+        <f>VLOOKUP(D94,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95">
+        <f>VLOOKUP(D95,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96">
+        <f>VLOOKUP(D96,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97">
+        <f>VLOOKUP(D97,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98">
+        <f>VLOOKUP(D98,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99">
+        <f>VLOOKUP(D99,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100">
+        <f>VLOOKUP(D100,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101">
+        <f>VLOOKUP(D101,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102">
+        <f>VLOOKUP(D102,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" t="s">
+        <v>171</v>
+      </c>
+      <c r="E103">
+        <f>VLOOKUP(D103,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104">
+        <f>VLOOKUP(D104,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105">
+        <f>VLOOKUP(D105,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" t="s">
+        <v>174</v>
+      </c>
+      <c r="E106">
+        <f>VLOOKUP(D106,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107">
+        <f>VLOOKUP(D107,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108">
+        <f>VLOOKUP(D108,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" t="s">
+        <v>186</v>
+      </c>
+      <c r="E109">
+        <f>VLOOKUP(D109,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110">
+        <f>VLOOKUP(D110,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111">
+        <f>VLOOKUP(D111,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112">
+        <f>VLOOKUP(D112,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113">
+        <f>VLOOKUP(D113,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114">
+        <f>VLOOKUP(D114,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115">
+        <f>VLOOKUP(D115,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116">
+        <f>VLOOKUP(D116,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117">
+        <f>VLOOKUP(D117,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" t="s">
+        <v>214</v>
+      </c>
+      <c r="E118">
+        <f>VLOOKUP(D118,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119">
+        <f>VLOOKUP(D119,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120">
+        <f>VLOOKUP(D120,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121">
+        <f>VLOOKUP(D121,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122">
+        <f>VLOOKUP(D122,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>230</v>
+      </c>
+      <c r="D123" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123">
+        <f>VLOOKUP(D123,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124">
+        <f>VLOOKUP(D124,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>232</v>
+      </c>
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125">
+        <f>VLOOKUP(D125,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126">
+        <f>VLOOKUP(D126,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127">
+        <f>VLOOKUP(D127,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" t="s">
+        <v>240</v>
+      </c>
+      <c r="E128">
+        <f>VLOOKUP(D128,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129">
+        <f>VLOOKUP(D129,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130">
+        <f>VLOOKUP(D130,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>246</v>
+      </c>
+      <c r="D131" t="s">
+        <v>246</v>
+      </c>
+      <c r="E131">
+        <f>VLOOKUP(D131,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" t="s">
+        <v>247</v>
+      </c>
+      <c r="E132">
+        <f>VLOOKUP(D132,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <f>VLOOKUP(D133,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <f>VLOOKUP(D134,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <f>VLOOKUP(D135,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <f>VLOOKUP(D136,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <f>VLOOKUP(D137,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138">
+        <f>VLOOKUP(D138,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139">
+        <f>VLOOKUP(D139,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140">
+        <f>VLOOKUP(D140,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141">
+        <f>VLOOKUP(D141,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <f>VLOOKUP(D142,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143">
+        <f>VLOOKUP(D143,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144">
+        <f>VLOOKUP(D144,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145">
+        <f>VLOOKUP(D145,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146">
+        <f>VLOOKUP(D146,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" t="s">
+        <v>97</v>
+      </c>
+      <c r="E147">
+        <f>VLOOKUP(D147,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148">
+        <f>VLOOKUP(D148,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <f>VLOOKUP(D149,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" t="s">
+        <v>103</v>
+      </c>
+      <c r="E150">
+        <f>VLOOKUP(D150,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151">
+        <f>VLOOKUP(D151,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" t="s">
+        <v>111</v>
+      </c>
+      <c r="E152">
+        <f>VLOOKUP(D152,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" t="s">
+        <v>115</v>
+      </c>
+      <c r="E153">
+        <f>VLOOKUP(D153,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E154">
+        <f>VLOOKUP(D154,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155">
+        <f>VLOOKUP(D155,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" t="s">
+        <v>172</v>
+      </c>
+      <c r="E156">
+        <f>VLOOKUP(D156,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157">
+        <f>VLOOKUP(D157,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>222</v>
+      </c>
+      <c r="D158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158">
+        <f>VLOOKUP(D158,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D159" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159">
+        <f>VLOOKUP(D159,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>253</v>
+      </c>
+      <c r="D160" t="s">
+        <v>239</v>
+      </c>
+      <c r="E160">
+        <f>VLOOKUP(D160,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" t="s">
+        <v>112</v>
+      </c>
+      <c r="E161">
+        <f>VLOOKUP(D161,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162">
+        <f>VLOOKUP(D162,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163" t="s">
+        <v>178</v>
+      </c>
+      <c r="E163">
+        <f>VLOOKUP(D163,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>112</v>
+      </c>
+      <c r="D164" t="s">
+        <v>112</v>
+      </c>
+      <c r="E164">
+        <f>VLOOKUP(D164,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" t="s">
+        <v>178</v>
+      </c>
+      <c r="E165">
+        <f>VLOOKUP(D165,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" t="s">
+        <v>212</v>
+      </c>
+      <c r="E166">
+        <f>VLOOKUP(D166,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>229</v>
+      </c>
+      <c r="D167" t="s">
+        <v>229</v>
+      </c>
+      <c r="E167">
+        <f>VLOOKUP(D167,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" t="s">
+        <v>233</v>
+      </c>
+      <c r="E168">
+        <f>VLOOKUP(D168,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" t="s">
+        <v>243</v>
+      </c>
+      <c r="E169">
+        <f>VLOOKUP(D169,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" t="s">
+        <v>112</v>
+      </c>
+      <c r="E170">
+        <f>VLOOKUP(D170,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" t="s">
+        <v>137</v>
+      </c>
+      <c r="E171">
+        <f>VLOOKUP(D171,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D172" t="s">
+        <v>178</v>
+      </c>
+      <c r="E172">
+        <f>VLOOKUP(D172,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>260</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173">
+        <f>VLOOKUP(D173,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D174" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <f>VLOOKUP(D174,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175" t="s">
+        <v>46</v>
+      </c>
+      <c r="E175">
+        <f>VLOOKUP(D175,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176">
+        <f>VLOOKUP(D176,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" t="s">
+        <v>112</v>
+      </c>
+      <c r="E177">
+        <f>VLOOKUP(D177,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>113</v>
+      </c>
+      <c r="D178" t="s">
+        <v>113</v>
+      </c>
+      <c r="E178">
+        <f>VLOOKUP(D178,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>121</v>
+      </c>
+      <c r="D179" t="s">
+        <v>121</v>
+      </c>
+      <c r="E179">
+        <f>VLOOKUP(D179,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>125</v>
+      </c>
+      <c r="D180" t="s">
+        <v>125</v>
+      </c>
+      <c r="E180">
+        <f>VLOOKUP(D180,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>135</v>
+      </c>
+      <c r="D181" t="s">
+        <v>135</v>
+      </c>
+      <c r="E181">
+        <f>VLOOKUP(D181,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D182" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182">
+        <f>VLOOKUP(D182,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>217</v>
+      </c>
+      <c r="D183" t="s">
+        <v>217</v>
+      </c>
+      <c r="E183">
+        <f>VLOOKUP(D183,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>233</v>
+      </c>
+      <c r="D184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E184">
+        <f>VLOOKUP(D184,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185">
+        <f>VLOOKUP(D185,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>280</v>
+      </c>
+      <c r="D186" t="s">
+        <v>123</v>
+      </c>
+      <c r="E186">
+        <f>VLOOKUP(D186,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>136</v>
+      </c>
+      <c r="D187" t="s">
+        <v>136</v>
+      </c>
+      <c r="E187">
+        <f>VLOOKUP(D187,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <f>VLOOKUP(D188,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189">
+        <f>VLOOKUP(D189,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190">
+        <f>VLOOKUP(D190,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191">
+        <f>VLOOKUP(D191,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192">
+        <f>VLOOKUP(D192,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193">
+        <f>VLOOKUP(D193,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194">
+        <f>VLOOKUP(D194,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195">
+        <f>VLOOKUP(D195,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196">
+        <f>VLOOKUP(D196,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D197" t="s">
+        <v>70</v>
+      </c>
+      <c r="E197">
+        <f>VLOOKUP(D197,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" t="s">
+        <v>75</v>
+      </c>
+      <c r="E198">
+        <f>VLOOKUP(D198,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>80</v>
+      </c>
+      <c r="D199" t="s">
+        <v>80</v>
+      </c>
+      <c r="E199">
+        <f>VLOOKUP(D199,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200">
+        <f>VLOOKUP(D200,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>106</v>
+      </c>
+      <c r="D201" t="s">
+        <v>106</v>
+      </c>
+      <c r="E201">
+        <f>VLOOKUP(D201,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>265</v>
+      </c>
+      <c r="D202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E202">
+        <f>VLOOKUP(D202,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203" t="s">
+        <v>141</v>
+      </c>
+      <c r="E203">
+        <f>VLOOKUP(D203,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>142</v>
+      </c>
+      <c r="D204" t="s">
+        <v>142</v>
+      </c>
+      <c r="E204">
+        <f>VLOOKUP(D204,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>149</v>
+      </c>
+      <c r="D205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E205">
+        <f>VLOOKUP(D205,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>153</v>
+      </c>
+      <c r="D206" t="s">
+        <v>153</v>
+      </c>
+      <c r="E206">
+        <f>VLOOKUP(D206,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>155</v>
+      </c>
+      <c r="D207" t="s">
+        <v>155</v>
+      </c>
+      <c r="E207">
+        <f>VLOOKUP(D207,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>161</v>
+      </c>
+      <c r="D208" t="s">
+        <v>161</v>
+      </c>
+      <c r="E208">
+        <f>VLOOKUP(D208,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209" t="s">
+        <v>163</v>
+      </c>
+      <c r="E209">
+        <f>VLOOKUP(D209,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" t="s">
+        <v>168</v>
+      </c>
+      <c r="E210">
+        <f>VLOOKUP(D210,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>181</v>
+      </c>
+      <c r="D211" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211">
+        <f>VLOOKUP(D211,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" t="s">
+        <v>192</v>
+      </c>
+      <c r="E212">
+        <f>VLOOKUP(D212,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>193</v>
+      </c>
+      <c r="D213" t="s">
+        <v>193</v>
+      </c>
+      <c r="E213">
+        <f>VLOOKUP(D213,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>196</v>
+      </c>
+      <c r="D214" t="s">
+        <v>196</v>
+      </c>
+      <c r="E214">
+        <f>VLOOKUP(D214,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>197</v>
+      </c>
+      <c r="D215" t="s">
+        <v>197</v>
+      </c>
+      <c r="E215">
+        <f>VLOOKUP(D215,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>198</v>
+      </c>
+      <c r="D216" t="s">
+        <v>198</v>
+      </c>
+      <c r="E216">
+        <f>VLOOKUP(D216,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>199</v>
+      </c>
+      <c r="D217" t="s">
+        <v>199</v>
+      </c>
+      <c r="E217">
+        <f>VLOOKUP(D217,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>202</v>
+      </c>
+      <c r="D218" t="s">
+        <v>202</v>
+      </c>
+      <c r="E218">
+        <f>VLOOKUP(D218,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>203</v>
+      </c>
+      <c r="D219" t="s">
+        <v>203</v>
+      </c>
+      <c r="E219">
+        <f>VLOOKUP(D219,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>206</v>
+      </c>
+      <c r="D220" t="s">
+        <v>206</v>
+      </c>
+      <c r="E220">
+        <f>VLOOKUP(D220,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>207</v>
+      </c>
+      <c r="D221" t="s">
+        <v>207</v>
+      </c>
+      <c r="E221">
+        <f>VLOOKUP(D221,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>208</v>
+      </c>
+      <c r="D222" t="s">
+        <v>208</v>
+      </c>
+      <c r="E222">
+        <f>VLOOKUP(D222,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>221</v>
+      </c>
+      <c r="D223" t="s">
+        <v>221</v>
+      </c>
+      <c r="E223">
+        <f>VLOOKUP(D223,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>224</v>
+      </c>
+      <c r="D224" t="s">
+        <v>224</v>
+      </c>
+      <c r="E224">
+        <f>VLOOKUP(D224,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" t="s">
+        <v>226</v>
+      </c>
+      <c r="E225">
+        <f>VLOOKUP(D225,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+      <c r="D226" t="s">
+        <v>227</v>
+      </c>
+      <c r="E226">
+        <f>VLOOKUP(D226,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" t="s">
+        <v>228</v>
+      </c>
+      <c r="E227">
+        <f>VLOOKUP(D227,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228" t="s">
+        <v>236</v>
+      </c>
+      <c r="E228">
+        <f>VLOOKUP(D228,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>237</v>
+      </c>
+      <c r="D229" t="s">
+        <v>237</v>
+      </c>
+      <c r="E229">
+        <f>VLOOKUP(D229,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>244</v>
+      </c>
+      <c r="D230" t="s">
+        <v>244</v>
+      </c>
+      <c r="E230">
+        <f>VLOOKUP(D230,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <f>VLOOKUP(D231,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" t="s">
+        <v>32</v>
+      </c>
+      <c r="E232">
+        <f>VLOOKUP(D232,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>62</v>
+      </c>
+      <c r="D233" t="s">
+        <v>62</v>
+      </c>
+      <c r="E233">
+        <f>VLOOKUP(D233,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>77</v>
+      </c>
+      <c r="D234" t="s">
+        <v>77</v>
+      </c>
+      <c r="E234">
+        <f>VLOOKUP(D234,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>84</v>
+      </c>
+      <c r="D235" t="s">
+        <v>84</v>
+      </c>
+      <c r="E235">
+        <f>VLOOKUP(D235,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>91</v>
+      </c>
+      <c r="D236" t="s">
+        <v>91</v>
+      </c>
+      <c r="E236">
+        <f>VLOOKUP(D236,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>93</v>
+      </c>
+      <c r="D237" t="s">
+        <v>93</v>
+      </c>
+      <c r="E237">
+        <f>VLOOKUP(D237,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>101</v>
+      </c>
+      <c r="D238" t="s">
+        <v>101</v>
+      </c>
+      <c r="E238">
+        <f>VLOOKUP(D238,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>102</v>
+      </c>
+      <c r="D239" t="s">
+        <v>102</v>
+      </c>
+      <c r="E239">
+        <f>VLOOKUP(D239,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>108</v>
+      </c>
+      <c r="D240" t="s">
+        <v>108</v>
+      </c>
+      <c r="E240">
+        <f>VLOOKUP(D240,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>265</v>
+      </c>
+      <c r="D241" t="s">
+        <v>277</v>
+      </c>
+      <c r="E241">
+        <f>VLOOKUP(D241,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>141</v>
+      </c>
+      <c r="D242" t="s">
+        <v>141</v>
+      </c>
+      <c r="E242">
+        <f>VLOOKUP(D242,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>142</v>
+      </c>
+      <c r="D243" t="s">
+        <v>142</v>
+      </c>
+      <c r="E243">
+        <f>VLOOKUP(D243,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>157</v>
+      </c>
+      <c r="D244" t="s">
+        <v>157</v>
+      </c>
+      <c r="E244">
+        <f>VLOOKUP(D244,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245" t="s">
+        <v>163</v>
+      </c>
+      <c r="E245">
+        <f>VLOOKUP(D245,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>168</v>
+      </c>
+      <c r="D246" t="s">
+        <v>168</v>
+      </c>
+      <c r="E246">
+        <f>VLOOKUP(D246,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>190</v>
+      </c>
+      <c r="D247" t="s">
+        <v>190</v>
+      </c>
+      <c r="E247">
+        <f>VLOOKUP(D247,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>192</v>
+      </c>
+      <c r="D248" t="s">
+        <v>192</v>
+      </c>
+      <c r="E248">
+        <f>VLOOKUP(D248,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>193</v>
+      </c>
+      <c r="D249" t="s">
+        <v>193</v>
+      </c>
+      <c r="E249">
+        <f>VLOOKUP(D249,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>196</v>
+      </c>
+      <c r="D250" t="s">
+        <v>196</v>
+      </c>
+      <c r="E250">
+        <f>VLOOKUP(D250,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>199</v>
+      </c>
+      <c r="D251" t="s">
+        <v>199</v>
+      </c>
+      <c r="E251">
+        <f>VLOOKUP(D251,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>202</v>
+      </c>
+      <c r="D252" t="s">
+        <v>202</v>
+      </c>
+      <c r="E252">
+        <f>VLOOKUP(D252,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>203</v>
+      </c>
+      <c r="D253" t="s">
+        <v>203</v>
+      </c>
+      <c r="E253">
+        <f>VLOOKUP(D253,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>206</v>
+      </c>
+      <c r="D254" t="s">
+        <v>206</v>
+      </c>
+      <c r="E254">
+        <f>VLOOKUP(D254,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>207</v>
+      </c>
+      <c r="D255" t="s">
+        <v>207</v>
+      </c>
+      <c r="E255">
+        <f>VLOOKUP(D255,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>208</v>
+      </c>
+      <c r="D256" t="s">
+        <v>208</v>
+      </c>
+      <c r="E256">
+        <f>VLOOKUP(D256,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>215</v>
+      </c>
+      <c r="D257" t="s">
+        <v>215</v>
+      </c>
+      <c r="E257">
+        <f>VLOOKUP(D257,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>224</v>
+      </c>
+      <c r="D258" t="s">
+        <v>224</v>
+      </c>
+      <c r="E258">
+        <f>VLOOKUP(D258,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>225</v>
+      </c>
+      <c r="D259" t="s">
+        <v>225</v>
+      </c>
+      <c r="E259">
+        <f>VLOOKUP(D259,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>226</v>
+      </c>
+      <c r="D260" t="s">
+        <v>226</v>
+      </c>
+      <c r="E260">
+        <f>VLOOKUP(D260,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>236</v>
+      </c>
+      <c r="D261" t="s">
+        <v>236</v>
+      </c>
+      <c r="E261">
+        <f>VLOOKUP(D261,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <f>VLOOKUP(D262,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>23</v>
+      </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263">
+        <f>VLOOKUP(D263,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264">
+        <f>VLOOKUP(D264,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" t="s">
+        <v>30</v>
+      </c>
+      <c r="E265">
+        <f>VLOOKUP(D265,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266">
+        <f>VLOOKUP(D266,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>37</v>
+      </c>
+      <c r="D267" t="s">
+        <v>37</v>
+      </c>
+      <c r="E267">
+        <f>VLOOKUP(D267,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" t="s">
+        <v>43</v>
+      </c>
+      <c r="D268" t="s">
+        <v>43</v>
+      </c>
+      <c r="E268">
+        <f>VLOOKUP(D268,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>63</v>
+      </c>
+      <c r="E269">
+        <f>VLOOKUP(D269,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270" t="s">
+        <v>69</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270">
+        <f>VLOOKUP(D270,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>70</v>
+      </c>
+      <c r="D271" t="s">
+        <v>70</v>
+      </c>
+      <c r="E271">
+        <f>VLOOKUP(D271,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s">
+        <v>75</v>
+      </c>
+      <c r="D272" t="s">
+        <v>75</v>
+      </c>
+      <c r="E272">
+        <f>VLOOKUP(D272,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273" t="s">
+        <v>80</v>
+      </c>
+      <c r="D273" t="s">
+        <v>80</v>
+      </c>
+      <c r="E273">
+        <f>VLOOKUP(D273,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274" t="s">
+        <v>96</v>
+      </c>
+      <c r="D274" t="s">
+        <v>96</v>
+      </c>
+      <c r="E274">
+        <f>VLOOKUP(D274,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>106</v>
+      </c>
+      <c r="D275" t="s">
+        <v>106</v>
+      </c>
+      <c r="E275">
+        <f>VLOOKUP(D275,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>265</v>
+      </c>
+      <c r="D276" t="s">
+        <v>277</v>
+      </c>
+      <c r="E276">
+        <f>VLOOKUP(D276,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>141</v>
+      </c>
+      <c r="D277" t="s">
+        <v>141</v>
+      </c>
+      <c r="E277">
+        <f>VLOOKUP(D277,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>142</v>
+      </c>
+      <c r="D278" t="s">
+        <v>142</v>
+      </c>
+      <c r="E278">
+        <f>VLOOKUP(D278,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>149</v>
+      </c>
+      <c r="D279" t="s">
+        <v>149</v>
+      </c>
+      <c r="E279">
+        <f>VLOOKUP(D279,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280" t="s">
+        <v>153</v>
+      </c>
+      <c r="D280" t="s">
+        <v>153</v>
+      </c>
+      <c r="E280">
+        <f>VLOOKUP(D280,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>155</v>
+      </c>
+      <c r="D281" t="s">
+        <v>155</v>
+      </c>
+      <c r="E281">
+        <f>VLOOKUP(D281,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>161</v>
+      </c>
+      <c r="D282" t="s">
+        <v>161</v>
+      </c>
+      <c r="E282">
+        <f>VLOOKUP(D282,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>163</v>
+      </c>
+      <c r="D283" t="s">
+        <v>163</v>
+      </c>
+      <c r="E283">
+        <f>VLOOKUP(D283,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="C284" t="s">
+        <v>168</v>
+      </c>
+      <c r="D284" t="s">
+        <v>168</v>
+      </c>
+      <c r="E284">
+        <f>VLOOKUP(D284,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" t="s">
+        <v>181</v>
+      </c>
+      <c r="D285" t="s">
+        <v>181</v>
+      </c>
+      <c r="E285">
+        <f>VLOOKUP(D285,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286" t="s">
+        <v>192</v>
+      </c>
+      <c r="D286" t="s">
+        <v>192</v>
+      </c>
+      <c r="E286">
+        <f>VLOOKUP(D286,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" t="s">
+        <v>193</v>
+      </c>
+      <c r="D287" t="s">
+        <v>193</v>
+      </c>
+      <c r="E287">
+        <f>VLOOKUP(D287,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" t="s">
+        <v>196</v>
+      </c>
+      <c r="D288" t="s">
+        <v>196</v>
+      </c>
+      <c r="E288">
+        <f>VLOOKUP(D288,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289" t="s">
+        <v>197</v>
+      </c>
+      <c r="D289" t="s">
+        <v>197</v>
+      </c>
+      <c r="E289">
+        <f>VLOOKUP(D289,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290" t="s">
+        <v>198</v>
+      </c>
+      <c r="D290" t="s">
+        <v>198</v>
+      </c>
+      <c r="E290">
+        <f>VLOOKUP(D290,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>199</v>
+      </c>
+      <c r="D291" t="s">
+        <v>199</v>
+      </c>
+      <c r="E291">
+        <f>VLOOKUP(D291,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>202</v>
+      </c>
+      <c r="D292" t="s">
+        <v>202</v>
+      </c>
+      <c r="E292">
+        <f>VLOOKUP(D292,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>203</v>
+      </c>
+      <c r="D293" t="s">
+        <v>203</v>
+      </c>
+      <c r="E293">
+        <f>VLOOKUP(D293,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294" t="s">
+        <v>206</v>
+      </c>
+      <c r="D294" t="s">
+        <v>206</v>
+      </c>
+      <c r="E294">
+        <f>VLOOKUP(D294,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s">
+        <v>207</v>
+      </c>
+      <c r="D295" t="s">
+        <v>207</v>
+      </c>
+      <c r="E295">
+        <f>VLOOKUP(D295,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296" t="s">
+        <v>208</v>
+      </c>
+      <c r="D296" t="s">
+        <v>208</v>
+      </c>
+      <c r="E296">
+        <f>VLOOKUP(D296,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297" t="s">
+        <v>221</v>
+      </c>
+      <c r="D297" t="s">
+        <v>221</v>
+      </c>
+      <c r="E297">
+        <f>VLOOKUP(D297,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298" t="s">
+        <v>224</v>
+      </c>
+      <c r="D298" t="s">
+        <v>224</v>
+      </c>
+      <c r="E298">
+        <f>VLOOKUP(D298,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299" t="s">
+        <v>226</v>
+      </c>
+      <c r="D299" t="s">
+        <v>226</v>
+      </c>
+      <c r="E299">
+        <f>VLOOKUP(D299,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>227</v>
+      </c>
+      <c r="D300" t="s">
+        <v>227</v>
+      </c>
+      <c r="E300">
+        <f>VLOOKUP(D300,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301" t="s">
+        <v>228</v>
+      </c>
+      <c r="D301" t="s">
+        <v>228</v>
+      </c>
+      <c r="E301">
+        <f>VLOOKUP(D301,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>236</v>
+      </c>
+      <c r="D302" t="s">
+        <v>236</v>
+      </c>
+      <c r="E302">
+        <f>VLOOKUP(D302,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>237</v>
+      </c>
+      <c r="D303" t="s">
+        <v>237</v>
+      </c>
+      <c r="E303">
+        <f>VLOOKUP(D303,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>244</v>
+      </c>
+      <c r="D304" t="s">
+        <v>244</v>
+      </c>
+      <c r="E304">
+        <f>VLOOKUP(D304,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>20</v>
+      </c>
+      <c r="D305" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305">
+        <f>VLOOKUP(D305,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>60</v>
+      </c>
+      <c r="D306" t="s">
+        <v>60</v>
+      </c>
+      <c r="E306">
+        <f>VLOOKUP(D306,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>86</v>
+      </c>
+      <c r="D307" t="s">
+        <v>86</v>
+      </c>
+      <c r="E307">
+        <f>VLOOKUP(D307,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>87</v>
+      </c>
+      <c r="D308" t="s">
+        <v>87</v>
+      </c>
+      <c r="E308">
+        <f>VLOOKUP(D308,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>90</v>
+      </c>
+      <c r="D309" t="s">
+        <v>90</v>
+      </c>
+      <c r="E309">
+        <f>VLOOKUP(D309,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" t="s">
+        <v>93</v>
+      </c>
+      <c r="D310" t="s">
+        <v>93</v>
+      </c>
+      <c r="E310">
+        <f>VLOOKUP(D310,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311" t="s">
+        <v>102</v>
+      </c>
+      <c r="D311" t="s">
+        <v>102</v>
+      </c>
+      <c r="E311">
+        <f>VLOOKUP(D311,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>264</v>
+      </c>
+      <c r="D312" t="s">
+        <v>105</v>
+      </c>
+      <c r="E312">
+        <f>VLOOKUP(D312,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313" t="s">
+        <v>107</v>
+      </c>
+      <c r="D313" t="s">
+        <v>107</v>
+      </c>
+      <c r="E313">
+        <f>VLOOKUP(D313,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>108</v>
+      </c>
+      <c r="D314" t="s">
+        <v>108</v>
+      </c>
+      <c r="E314">
+        <f>VLOOKUP(D314,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
+        <v>131</v>
+      </c>
+      <c r="D315" t="s">
+        <v>131</v>
+      </c>
+      <c r="E315">
+        <f>VLOOKUP(D315,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316" t="s">
+        <v>142</v>
+      </c>
+      <c r="D316" t="s">
+        <v>142</v>
+      </c>
+      <c r="E316">
+        <f>VLOOKUP(D316,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
+        <v>166</v>
+      </c>
+      <c r="D317" t="s">
+        <v>166</v>
+      </c>
+      <c r="E317">
+        <f>VLOOKUP(D317,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>168</v>
+      </c>
+      <c r="D318" t="s">
+        <v>168</v>
+      </c>
+      <c r="E318">
+        <f>VLOOKUP(D318,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>192</v>
+      </c>
+      <c r="D319" t="s">
+        <v>192</v>
+      </c>
+      <c r="E319">
+        <f>VLOOKUP(D319,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320" t="s">
+        <v>197</v>
+      </c>
+      <c r="D320" t="s">
+        <v>197</v>
+      </c>
+      <c r="E320">
+        <f>VLOOKUP(D320,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>199</v>
+      </c>
+      <c r="D321" t="s">
+        <v>199</v>
+      </c>
+      <c r="E321">
+        <f>VLOOKUP(D321,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>203</v>
+      </c>
+      <c r="D322" t="s">
+        <v>203</v>
+      </c>
+      <c r="E322">
+        <f>VLOOKUP(D322,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>211</v>
+      </c>
+      <c r="D323" t="s">
+        <v>211</v>
+      </c>
+      <c r="E323">
+        <f>VLOOKUP(D323,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324" t="s">
+        <v>258</v>
+      </c>
+      <c r="D324" t="s">
+        <v>276</v>
+      </c>
+      <c r="E324">
+        <f>VLOOKUP(D324,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>224</v>
+      </c>
+      <c r="D325" t="s">
+        <v>224</v>
+      </c>
+      <c r="E325">
+        <f>VLOOKUP(D325,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" t="s">
+        <v>75</v>
+      </c>
+      <c r="E326">
+        <f>VLOOKUP(D326,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>153</v>
+      </c>
+      <c r="D327" t="s">
+        <v>153</v>
+      </c>
+      <c r="E327">
+        <f>VLOOKUP(D327,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>155</v>
+      </c>
+      <c r="D328" t="s">
+        <v>155</v>
+      </c>
+      <c r="E328">
+        <f>VLOOKUP(D328,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+      <c r="C329" t="s">
+        <v>197</v>
+      </c>
+      <c r="D329" t="s">
+        <v>197</v>
+      </c>
+      <c r="E329">
+        <f>VLOOKUP(D329,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>221</v>
+      </c>
+      <c r="D330" t="s">
+        <v>221</v>
+      </c>
+      <c r="E330">
+        <f>VLOOKUP(D330,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+      <c r="C331" t="s">
+        <v>227</v>
+      </c>
+      <c r="D331" t="s">
+        <v>227</v>
+      </c>
+      <c r="E331">
+        <f>VLOOKUP(D331,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>236</v>
+      </c>
+      <c r="D332" t="s">
+        <v>236</v>
+      </c>
+      <c r="E332">
+        <f>VLOOKUP(D332,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333">
+        <f>VLOOKUP(D333,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>3</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334">
+        <f>VLOOKUP(D334,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>51</v>
+      </c>
+      <c r="D335" t="s">
+        <v>51</v>
+      </c>
+      <c r="E335">
+        <f>VLOOKUP(D335,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>154</v>
+      </c>
+      <c r="D336" t="s">
+        <v>154</v>
+      </c>
+      <c r="E336">
+        <f>VLOOKUP(D336,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>176</v>
+      </c>
+      <c r="D337" t="s">
+        <v>176</v>
+      </c>
+      <c r="E337">
+        <f>VLOOKUP(D337,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>177</v>
+      </c>
+      <c r="D338" t="s">
+        <v>177</v>
+      </c>
+      <c r="E338">
+        <f>VLOOKUP(D338,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>180</v>
+      </c>
+      <c r="D339" t="s">
+        <v>180</v>
+      </c>
+      <c r="E339">
+        <f>VLOOKUP(D339,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>188</v>
+      </c>
+      <c r="D340" t="s">
+        <v>188</v>
+      </c>
+      <c r="E340">
+        <f>VLOOKUP(D340,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>238</v>
+      </c>
+      <c r="D341" t="s">
+        <v>238</v>
+      </c>
+      <c r="E341">
+        <f>VLOOKUP(D341,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>3</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>242</v>
+      </c>
+      <c r="D342" t="s">
+        <v>242</v>
+      </c>
+      <c r="E342">
+        <f>VLOOKUP(D342,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>252</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2</v>
+      </c>
+      <c r="E343">
+        <f>VLOOKUP(D343,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344">
+        <f>VLOOKUP(D344,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345">
+        <f>VLOOKUP(D345,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" t="s">
+        <v>21</v>
+      </c>
+      <c r="E346">
+        <f>VLOOKUP(D346,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>51</v>
+      </c>
+      <c r="D347" t="s">
+        <v>51</v>
+      </c>
+      <c r="E347">
+        <f>VLOOKUP(D347,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>58</v>
+      </c>
+      <c r="D348" t="s">
+        <v>58</v>
+      </c>
+      <c r="E348">
+        <f>VLOOKUP(D348,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>3</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>61</v>
+      </c>
+      <c r="D349" t="s">
+        <v>61</v>
+      </c>
+      <c r="E349">
+        <f>VLOOKUP(D349,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>3</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>74</v>
+      </c>
+      <c r="D350" t="s">
+        <v>74</v>
+      </c>
+      <c r="E350">
+        <f>VLOOKUP(D350,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>76</v>
+      </c>
+      <c r="D351" t="s">
+        <v>76</v>
+      </c>
+      <c r="E351">
+        <f>VLOOKUP(D351,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>110</v>
+      </c>
+      <c r="D352" t="s">
+        <v>110</v>
+      </c>
+      <c r="E352">
+        <f>VLOOKUP(D352,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>124</v>
+      </c>
+      <c r="D353" t="s">
+        <v>124</v>
+      </c>
+      <c r="E353">
+        <f>VLOOKUP(D353,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354" t="s">
+        <v>138</v>
+      </c>
+      <c r="D354" t="s">
+        <v>138</v>
+      </c>
+      <c r="E354">
+        <f>VLOOKUP(D354,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>154</v>
+      </c>
+      <c r="D355" t="s">
+        <v>154</v>
+      </c>
+      <c r="E355">
+        <f>VLOOKUP(D355,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>176</v>
+      </c>
+      <c r="D356" t="s">
+        <v>176</v>
+      </c>
+      <c r="E356">
+        <f>VLOOKUP(D356,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>177</v>
+      </c>
+      <c r="D357" t="s">
+        <v>177</v>
+      </c>
+      <c r="E357">
+        <f>VLOOKUP(D357,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
+        <v>180</v>
+      </c>
+      <c r="D358" t="s">
+        <v>180</v>
+      </c>
+      <c r="E358">
+        <f>VLOOKUP(D358,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>182</v>
+      </c>
+      <c r="D359" t="s">
+        <v>182</v>
+      </c>
+      <c r="E359">
+        <f>VLOOKUP(D359,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>195</v>
+      </c>
+      <c r="D360" t="s">
+        <v>195</v>
+      </c>
+      <c r="E360">
+        <f>VLOOKUP(D360,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361">
+        <f>VLOOKUP(D361,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362">
+        <f>VLOOKUP(D362,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>51</v>
+      </c>
+      <c r="D363" t="s">
+        <v>51</v>
+      </c>
+      <c r="E363">
+        <f>VLOOKUP(D363,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>154</v>
+      </c>
+      <c r="D364" t="s">
+        <v>154</v>
+      </c>
+      <c r="E364">
+        <f>VLOOKUP(D364,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365" t="s">
+        <v>176</v>
+      </c>
+      <c r="D365" t="s">
+        <v>176</v>
+      </c>
+      <c r="E365">
+        <f>VLOOKUP(D365,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>177</v>
+      </c>
+      <c r="D366" t="s">
+        <v>177</v>
+      </c>
+      <c r="E366">
+        <f>VLOOKUP(D366,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>180</v>
+      </c>
+      <c r="D367" t="s">
+        <v>180</v>
+      </c>
+      <c r="E367">
+        <f>VLOOKUP(D367,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368" t="s">
+        <v>188</v>
+      </c>
+      <c r="D368" t="s">
+        <v>188</v>
+      </c>
+      <c r="E368">
+        <f>VLOOKUP(D368,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>238</v>
+      </c>
+      <c r="D369" t="s">
+        <v>238</v>
+      </c>
+      <c r="E369">
+        <f>VLOOKUP(D369,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>242</v>
+      </c>
+      <c r="D370" t="s">
+        <v>242</v>
+      </c>
+      <c r="E370">
+        <f>VLOOKUP(D370,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371">
+        <f>VLOOKUP(D371,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372" t="s">
+        <v>61</v>
+      </c>
+      <c r="D372" t="s">
+        <v>61</v>
+      </c>
+      <c r="E372">
+        <f>VLOOKUP(D372,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373" t="s">
+        <v>76</v>
+      </c>
+      <c r="D373" t="s">
+        <v>76</v>
+      </c>
+      <c r="E373">
+        <f>VLOOKUP(D373,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374" t="s">
+        <v>110</v>
+      </c>
+      <c r="D374" t="s">
+        <v>110</v>
+      </c>
+      <c r="E374">
+        <f>VLOOKUP(D374,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375" t="s">
+        <v>124</v>
+      </c>
+      <c r="D375" t="s">
+        <v>124</v>
+      </c>
+      <c r="E375">
+        <f>VLOOKUP(D375,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376" t="s">
+        <v>138</v>
+      </c>
+      <c r="D376" t="s">
+        <v>138</v>
+      </c>
+      <c r="E376">
+        <f>VLOOKUP(D376,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377" t="s">
+        <v>177</v>
+      </c>
+      <c r="D377" t="s">
+        <v>177</v>
+      </c>
+      <c r="E377">
+        <f>VLOOKUP(D377,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378" t="s">
+        <v>182</v>
+      </c>
+      <c r="D378" t="s">
+        <v>182</v>
+      </c>
+      <c r="E378">
+        <f>VLOOKUP(D378,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379" t="s">
+        <v>252</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2</v>
+      </c>
+      <c r="E379">
+        <f>VLOOKUP(D379,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>7</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380">
+        <f>VLOOKUP(D380,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" t="s">
+        <v>21</v>
+      </c>
+      <c r="E381">
+        <f>VLOOKUP(D381,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>71</v>
+      </c>
+      <c r="D382" t="s">
+        <v>71</v>
+      </c>
+      <c r="E382">
+        <f>VLOOKUP(D382,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>4</v>
+      </c>
+      <c r="C383" t="s">
+        <v>95</v>
+      </c>
+      <c r="D383" t="s">
+        <v>95</v>
+      </c>
+      <c r="E383">
+        <f>VLOOKUP(D383,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>138</v>
+      </c>
+      <c r="D384" t="s">
+        <v>138</v>
+      </c>
+      <c r="E384">
+        <f>VLOOKUP(D384,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+      <c r="C385" t="s">
+        <v>269</v>
+      </c>
+      <c r="D385" t="s">
+        <v>145</v>
+      </c>
+      <c r="E385">
+        <f>VLOOKUP(D385,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+      <c r="C386" t="s">
+        <v>154</v>
+      </c>
+      <c r="D386" t="s">
+        <v>154</v>
+      </c>
+      <c r="E386">
+        <f>VLOOKUP(D386,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+      <c r="C387" t="s">
+        <v>176</v>
+      </c>
+      <c r="D387" t="s">
+        <v>176</v>
+      </c>
+      <c r="E387">
+        <f>VLOOKUP(D387,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>177</v>
+      </c>
+      <c r="D388" t="s">
+        <v>177</v>
+      </c>
+      <c r="E388">
+        <f>VLOOKUP(D388,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="C389" t="s">
+        <v>182</v>
+      </c>
+      <c r="D389" t="s">
+        <v>182</v>
+      </c>
+      <c r="E389">
+        <f>VLOOKUP(D389,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+      <c r="C390" t="s">
+        <v>195</v>
+      </c>
+      <c r="D390" t="s">
+        <v>195</v>
+      </c>
+      <c r="E390">
+        <f>VLOOKUP(D390,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>4</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391" t="s">
+        <v>130</v>
+      </c>
+      <c r="D391" t="s">
+        <v>130</v>
+      </c>
+      <c r="E391">
+        <f>VLOOKUP(D391,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>4</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>130</v>
+      </c>
+      <c r="D392" t="s">
+        <v>130</v>
+      </c>
+      <c r="E392">
+        <f>VLOOKUP(D392,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>4</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393" t="s">
+        <v>130</v>
+      </c>
+      <c r="D393" t="s">
+        <v>130</v>
+      </c>
+      <c r="E393">
+        <f>VLOOKUP(D393,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394" t="s">
+        <v>130</v>
+      </c>
+      <c r="D394" t="s">
+        <v>130</v>
+      </c>
+      <c r="E394">
+        <f>VLOOKUP(D394,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>4</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+      <c r="C395" t="s">
+        <v>36</v>
+      </c>
+      <c r="D395" t="s">
+        <v>36</v>
+      </c>
+      <c r="E395">
+        <f>VLOOKUP(D395,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>4</v>
+      </c>
+      <c r="B396">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>130</v>
+      </c>
+      <c r="D396" t="s">
+        <v>130</v>
+      </c>
+      <c r="E396">
+        <f>VLOOKUP(D396,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>5</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>150</v>
+      </c>
+      <c r="D397" t="s">
+        <v>150</v>
+      </c>
+      <c r="E397">
+        <f>VLOOKUP(D397,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>5</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398" t="s">
+        <v>150</v>
+      </c>
+      <c r="D398" t="s">
+        <v>150</v>
+      </c>
+      <c r="E398">
+        <f>VLOOKUP(D398,country_match!$A$2:$B$249,2,FALSE)</f>
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E398"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>